--- a/Sprints/Sprint1_Divi/ProducBacklogDIVI.xlsx
+++ b/Sprints/Sprint1_Divi/ProducBacklogDIVI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maycol\Desktop\MisionTic\Ciclo 4 Desarrollo web\ProyectoCiclo3Alquiler-main\Documentos Sprint\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maycol\Documents\Coding\MisionTic Ciclo 4\Divi Github\Ciclo4ProyectoDivi\Sprints\Sprint1_Divi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BB8B55-1901-49C1-83A9-3D27E0E07468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819954FC-145A-465A-B7F0-7AEAB6CCBAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="63">
   <si>
     <t>SPRINT</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>CORRECCIÓN DE ERRORES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIMER ACERCAMIENTO DE LA API </t>
   </si>
 </sst>
 </file>
@@ -567,67 +570,115 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="76">
+  <dxfs count="67">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00F8F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF969696"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -635,126 +686,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00F8F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF969696"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00F8F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF969696"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00F8F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF969696"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -808,330 +739,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00F8F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF969696"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00F8F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF969696"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00F8F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF969696"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00F8F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF969696"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00F8F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF969696"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00F8F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF969696"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00F8F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF969696"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00F8F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF969696"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00F8F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF969696"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1144,7 +751,12 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1162,6 +774,114 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00F8F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF969696"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00F8F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF969696"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00F8F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF969696"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1172,6 +892,14 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1189,6 +917,78 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00F8F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF969696"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00F8F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF969696"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1199,14 +999,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1224,6 +1016,78 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00F8F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF969696"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00F8F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF969696"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1233,12 +1097,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1256,6 +1115,42 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00F8F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF969696"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color rgb="FFFF6600"/>
@@ -1336,19 +1231,19 @@
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="75"/>
-      <tableStyleElement type="firstRowStripe" dxfId="74"/>
-      <tableStyleElement type="secondRowStripe" dxfId="73"/>
+      <tableStyleElement type="headerRow" dxfId="66"/>
+      <tableStyleElement type="firstRowStripe" dxfId="65"/>
+      <tableStyleElement type="secondRowStripe" dxfId="64"/>
     </tableStyle>
     <tableStyle name="Table Style 2" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="headerRow" dxfId="72"/>
-      <tableStyleElement type="firstRowStripe" dxfId="71"/>
-      <tableStyleElement type="secondRowStripe" dxfId="70"/>
+      <tableStyleElement type="headerRow" dxfId="63"/>
+      <tableStyleElement type="firstRowStripe" dxfId="62"/>
+      <tableStyleElement type="secondRowStripe" dxfId="61"/>
     </tableStyle>
     <tableStyle name="Table Style 3" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
-      <tableStyleElement type="headerRow" dxfId="69"/>
-      <tableStyleElement type="firstRowStripe" dxfId="68"/>
-      <tableStyleElement type="secondRowStripe" dxfId="67"/>
+      <tableStyleElement type="headerRow" dxfId="60"/>
+      <tableStyleElement type="firstRowStripe" dxfId="59"/>
+      <tableStyleElement type="secondRowStripe" dxfId="58"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1377,70 +1272,70 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A2:E9" totalsRowShown="0" headerRowDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A2:E9" totalsRowShown="0" headerRowDxfId="54">
   <autoFilter ref="A2:E9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TAREA"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="RESPONSABLE" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="FECHA INICIO" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="FECHA FIN" dataDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ESTADO" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="RESPONSABLE" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="FECHA INICIO" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="FECHA FIN" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ESTADO" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A2:E11" totalsRowShown="0" headerRowDxfId="50">
-  <autoFilter ref="A2:E11" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A2:E12" totalsRowShown="0" headerRowDxfId="43">
+  <autoFilter ref="A2:E12" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="TAREA"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="RESPONSABLE" dataDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="FECHA INICIO" dataDxfId="48"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="FECHA FIN" dataDxfId="47"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="ESTADO" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="RESPONSABLE" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="FECHA INICIO" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="FECHA FIN" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="ESTADO" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table134" displayName="Table134" ref="A2:E10" totalsRowShown="0" headerRowDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table134" displayName="Table134" ref="A2:E10" totalsRowShown="0" headerRowDxfId="32">
   <autoFilter ref="A2:E10" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="TAREA" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="RESPONSABLE" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="FECHA INICIO" dataDxfId="64"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="FECHA FIN" dataDxfId="63"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="ESTADO" dataDxfId="62"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="TAREA" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="RESPONSABLE" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="FECHA INICIO" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="FECHA FIN" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="ESTADO" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1345" displayName="Table1345" ref="A2:E7" totalsRowShown="0" headerRowDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1345" displayName="Table1345" ref="A2:E7" totalsRowShown="0" headerRowDxfId="17">
   <autoFilter ref="A2:E7" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="TAREA" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="RESPONSABLE" dataDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="FECHA INICIO" dataDxfId="58"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="FECHA FIN" dataDxfId="57"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="ESTADO" dataDxfId="56"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="TAREA" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="RESPONSABLE" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="FECHA INICIO" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="FECHA FIN" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="ESTADO" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table13456" displayName="Table13456" ref="A2:E7" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table13456" displayName="Table13456" ref="A2:E7" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="A2:E7" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="TAREA" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="RESPONSABLE" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="FECHA INICIO" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="FECHA FIN" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="ESTADO" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="TAREA" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="RESPONSABLE" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="FECHA INICIO" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="FECHA FIN" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="ESTADO" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1723,12 +1618,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
@@ -1745,78 +1640,78 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="34">
+      <c r="A3" s="26">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="36" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="34">
+      <c r="A4" s="26">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="40"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="37"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="34">
+      <c r="A5" s="26">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="40"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="37"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="34">
+      <c r="A6" s="26">
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="40"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="37"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="34">
+      <c r="A7" s="26">
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="40"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="37"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="34">
+      <c r="A8" s="26">
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="40"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="37"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="35">
+      <c r="A9" s="27">
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="41"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="38"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -1825,10 +1720,10 @@
       <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="33" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1839,8 +1734,8 @@
       <c r="B11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -1849,8 +1744,8 @@
       <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
@@ -1859,8 +1754,8 @@
       <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
@@ -1869,8 +1764,8 @@
       <c r="B14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
@@ -1879,8 +1774,8 @@
       <c r="B15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
@@ -1889,28 +1784,28 @@
       <c r="B16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>2</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>2</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
@@ -1919,10 +1814,10 @@
       <c r="B19" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="33" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1933,8 +1828,8 @@
       <c r="B20" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
@@ -1943,8 +1838,8 @@
       <c r="B21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
@@ -1953,8 +1848,8 @@
       <c r="B22" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
@@ -1963,8 +1858,8 @@
       <c r="B23" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
@@ -1973,8 +1868,8 @@
       <c r="B24" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
@@ -1983,8 +1878,8 @@
       <c r="B25" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
@@ -1993,8 +1888,8 @@
       <c r="B26" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
@@ -2003,10 +1898,10 @@
       <c r="B27" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="42" t="s">
+      <c r="D27" s="33" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2017,8 +1912,8 @@
       <c r="B28" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
@@ -2027,8 +1922,8 @@
       <c r="B29" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
@@ -2037,8 +1932,8 @@
       <c r="B30" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
@@ -2047,8 +1942,8 @@
       <c r="B31" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
@@ -2057,10 +1952,10 @@
       <c r="B32" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="42" t="s">
+      <c r="D32" s="33" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2071,8 +1966,8 @@
       <c r="B33" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
@@ -2081,8 +1976,8 @@
       <c r="B34" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
@@ -2091,8 +1986,8 @@
       <c r="B35" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="25">
@@ -2101,22 +1996,22 @@
       <c r="B36" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="D3:D9"/>
-    <mergeCell ref="D10:D18"/>
-    <mergeCell ref="D19:D26"/>
-    <mergeCell ref="D27:D31"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="C27:C31"/>
     <mergeCell ref="C32:C36"/>
     <mergeCell ref="C10:C18"/>
     <mergeCell ref="C3:C9"/>
     <mergeCell ref="C19:C26"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="D3:D9"/>
+    <mergeCell ref="D10:D18"/>
+    <mergeCell ref="D19:D26"/>
+    <mergeCell ref="D27:D31"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2128,8 +2023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2140,13 +2035,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
@@ -2179,7 +2074,7 @@
         <v>44506</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2289,15 +2184,15 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E9">
-    <cfRule type="containsText" dxfId="44" priority="2" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="57" priority="2" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="3" operator="containsText" text="PENDIENTE">
+    <cfRule type="containsText" dxfId="56" priority="3" operator="containsText" text="PENDIENTE">
       <formula>NOT(ISERROR(SEARCH("PENDIENTE",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E9">
-    <cfRule type="containsText" dxfId="42" priority="1" operator="containsText" text="TERMINADO">
+    <cfRule type="containsText" dxfId="55" priority="1" operator="containsText" text="TERMINADO">
       <formula>NOT(ISERROR(SEARCH("TERMINADO",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2317,8 +2212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2328,13 +2223,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
@@ -2473,7 +2368,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="30" t="s">
         <v>40</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -2490,7 +2385,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="31" t="s">
         <v>41</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -2504,6 +2399,21 @@
       </c>
       <c r="E11" s="21" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="20">
+        <v>44516</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
@@ -2513,34 +2423,34 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="E3:E11">
-    <cfRule type="containsText" dxfId="41" priority="5" operator="containsText" text="EN PROGRESO">
+  <conditionalFormatting sqref="E3:E12">
+    <cfRule type="containsText" dxfId="49" priority="5" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="6" operator="containsText" text="PENDIENTE">
+    <cfRule type="containsText" dxfId="48" priority="6" operator="containsText" text="PENDIENTE">
       <formula>NOT(ISERROR(SEARCH("PENDIENTE",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E11">
-    <cfRule type="containsText" dxfId="39" priority="4" operator="containsText" text="TERMINADO">
+  <conditionalFormatting sqref="E3:E12">
+    <cfRule type="containsText" dxfId="47" priority="4" operator="containsText" text="TERMINADO">
       <formula>NOT(ISERROR(SEARCH("TERMINADO",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E11">
-    <cfRule type="containsText" dxfId="38" priority="2" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="46" priority="2" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",E9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="3" operator="containsText" text="PENDIENTE">
+    <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="PENDIENTE">
       <formula>NOT(ISERROR(SEARCH("PENDIENTE",E9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E11">
-    <cfRule type="containsText" dxfId="36" priority="1" operator="containsText" text="TERMINADO">
+    <cfRule type="containsText" dxfId="44" priority="1" operator="containsText" text="TERMINADO">
       <formula>NOT(ISERROR(SEARCH("TERMINADO",E9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E11" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E12" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"PENDIENTE, EN PROGRESO, TERMINADO"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2556,7 +2466,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2566,13 +2476,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
@@ -2728,42 +2638,42 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -2774,28 +2684,28 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E10">
-    <cfRule type="containsText" dxfId="29" priority="5" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="38" priority="5" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="6" operator="containsText" text="PENDIENTE">
+    <cfRule type="containsText" dxfId="37" priority="6" operator="containsText" text="PENDIENTE">
       <formula>NOT(ISERROR(SEARCH("PENDIENTE",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E10">
-    <cfRule type="containsText" dxfId="27" priority="4" operator="containsText" text="TERMINADO">
+    <cfRule type="containsText" dxfId="36" priority="4" operator="containsText" text="TERMINADO">
       <formula>NOT(ISERROR(SEARCH("TERMINADO",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E10">
-    <cfRule type="containsText" dxfId="26" priority="2" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="35" priority="2" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="PENDIENTE">
+    <cfRule type="containsText" dxfId="34" priority="3" operator="containsText" text="PENDIENTE">
       <formula>NOT(ISERROR(SEARCH("PENDIENTE",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E10">
-    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="TERMINADO">
+    <cfRule type="containsText" dxfId="33" priority="1" operator="containsText" text="TERMINADO">
       <formula>NOT(ISERROR(SEARCH("TERMINADO",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2826,13 +2736,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
@@ -2965,41 +2875,41 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E7 E9:E12">
-    <cfRule type="containsText" dxfId="23" priority="8" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="26" priority="8" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="9" operator="containsText" text="PENDIENTE">
+    <cfRule type="containsText" dxfId="25" priority="9" operator="containsText" text="PENDIENTE">
       <formula>NOT(ISERROR(SEARCH("PENDIENTE",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E7 E9:E12">
-    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="TERMINADO">
+    <cfRule type="containsText" dxfId="24" priority="7" operator="containsText" text="TERMINADO">
       <formula>NOT(ISERROR(SEARCH("TERMINADO",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",E8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="6" operator="containsText" text="PENDIENTE">
+    <cfRule type="containsText" dxfId="22" priority="6" operator="containsText" text="PENDIENTE">
       <formula>NOT(ISERROR(SEARCH("PENDIENTE",E8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="TERMINADO">
+    <cfRule type="containsText" dxfId="21" priority="4" operator="containsText" text="TERMINADO">
       <formula>NOT(ISERROR(SEARCH("TERMINADO",E8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="20" priority="2" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",E13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="PENDIENTE">
+    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="PENDIENTE">
       <formula>NOT(ISERROR(SEARCH("PENDIENTE",E13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="TERMINADO">
+    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="TERMINADO">
       <formula>NOT(ISERROR(SEARCH("TERMINADO",E13)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3030,13 +2940,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
@@ -3142,15 +3052,15 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="E3:E7">
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="EN PROGRESO">
+    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="EN PROGRESO">
       <formula>NOT(ISERROR(SEARCH("EN PROGRESO",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="PENDIENTE">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="PENDIENTE">
       <formula>NOT(ISERROR(SEARCH("PENDIENTE",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E7">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="TERMINADO">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="TERMINADO">
       <formula>NOT(ISERROR(SEARCH("TERMINADO",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
